--- a/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
+++ b/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Story</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>Partial</t>
   </si>
   <si>
     <t>Watch GTT recording, take notes, answer prompt</t>
@@ -294,6 +291,9 @@
       </rPr>
       <t>post</t>
     </r>
+  </si>
+  <si>
+    <t>Completed Date</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -377,11 +377,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -405,20 +431,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,11 +744,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -715,10 +754,11 @@
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,14 +772,17 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="G1" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -757,9 +800,12 @@
       <c r="F2" s="7">
         <v>42381</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="G2" s="7">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -767,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -775,14 +821,17 @@
       <c r="F3" s="7">
         <v>42381</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="G3" s="7">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -793,15 +842,18 @@
       <c r="F4" s="7">
         <v>42381</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="G4" s="7">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -813,13 +865,14 @@
       <c r="F5" s="7">
         <v>42382</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
@@ -829,16 +882,17 @@
       <c r="F6" s="7">
         <v>42382</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
@@ -849,17 +903,20 @@
       <c r="F7" s="7">
         <v>42381</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="G7" s="7">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -867,84 +924,93 @@
       <c r="F8" s="7">
         <v>42382</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="G8" s="7">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="19">
         <v>42382</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="G9" s="19">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7">
         <v>42383</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7">
         <v>42385</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>21</v>
@@ -955,42 +1021,47 @@
       <c r="F13" s="7">
         <v>42381</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
+      <c r="G13" s="7">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11">
+        <v>42384</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="14">
-        <v>42384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -1001,73 +1072,92 @@
       <c r="F16" s="7">
         <v>42385</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13" t="s">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11">
+        <v>42385</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="14">
-        <v>42385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7">
         <v>42385</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7">
         <v>42386</v>
       </c>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
@@ -1077,17 +1167,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
+++ b/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
@@ -431,34 +431,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +746,9 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -777,12 +779,12 @@
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -805,7 +807,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -826,7 +828,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -847,13 +849,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -868,11 +870,11 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
@@ -885,7 +887,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -908,7 +910,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -929,41 +931,41 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>42382</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>42382</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -973,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>27</v>
@@ -981,10 +983,12 @@
       <c r="F11" s="7">
         <v>42383</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="7">
+        <v>42383</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1003,10 +1007,10 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1026,35 +1030,35 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="20">
         <v>42384</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1075,40 +1079,40 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="20">
         <v>42385</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1126,8 +1130,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1144,6 +1148,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G17:G18"/>
@@ -1159,14 +1170,7 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
+++ b/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
@@ -434,6 +434,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -443,14 +449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -807,7 +807,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -849,13 +849,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -870,11 +870,11 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -931,41 +931,41 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="14">
         <v>42382</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="14">
         <v>42382</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1007,10 +1007,10 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1030,13 +1030,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>5</v>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>12</v>
@@ -1044,21 +1044,23 @@
       <c r="F14" s="20">
         <v>42384</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="20">
+        <v>42384</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1079,40 +1081,40 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="20">
         <v>42385</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1130,8 +1132,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1148,13 +1150,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G17:G18"/>
@@ -1171,6 +1166,13 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
+++ b/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,9 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,9 +743,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -867,7 +862,9 @@
       <c r="F5" s="7">
         <v>42382</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="7">
+        <v>42386</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -884,7 +881,9 @@
       <c r="F6" s="7">
         <v>42382</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="7">
+        <v>42386</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -1004,7 +1003,9 @@
       <c r="F12" s="7">
         <v>42385</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="7">
+        <v>42385</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1041,10 +1042,10 @@
       <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>42384</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="16">
         <v>42384</v>
       </c>
     </row>
@@ -1056,8 +1057,8 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1078,7 +1079,9 @@
       <c r="F16" s="7">
         <v>42385</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="7">
+        <v>42385</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -1094,10 +1097,12 @@
       <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>42385</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>42385</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1107,8 +1112,8 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -1129,7 +1134,9 @@
       <c r="F19" s="7">
         <v>42385</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="7">
+        <v>42385</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -1146,7 +1153,9 @@
       <c r="F20" s="7">
         <v>42386</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="7">
+        <v>42386</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1175,6 +1184,6 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
+++ b/docs/LynnBrittany_1601WK2_BurnUpList.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="14280"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Story</t>
   </si>
@@ -294,6 +296,84 @@
   </si>
   <si>
     <t>Completed Date</t>
+  </si>
+  <si>
+    <t>WK 3: The Week Ahead</t>
+  </si>
+  <si>
+    <t>Career Module</t>
+  </si>
+  <si>
+    <t>WK 3: Go To Training (GTT)</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Communicating with Clarity</t>
+  </si>
+  <si>
+    <t>Communicating with Visual Tools</t>
+  </si>
+  <si>
+    <t>WK 3: Anchor Points</t>
+  </si>
+  <si>
+    <t>WK 3: Call to Action - Engagement!</t>
+  </si>
+  <si>
+    <t>WK3: Research</t>
+  </si>
+  <si>
+    <t>WK3: Development</t>
+  </si>
+  <si>
+    <t>The Burn-up List</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>Planning Ahead</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Comment on Peers Posts</t>
+  </si>
+  <si>
+    <t>Post Anchor Points</t>
+  </si>
+  <si>
+    <t>Post about favorite quote or expression</t>
+  </si>
+  <si>
+    <t>Create a flowchart and submit</t>
+  </si>
+  <si>
+    <t>Watch and Respond</t>
+  </si>
+  <si>
+    <t>Review Assignments - Complete second quiz</t>
+  </si>
+  <si>
+    <t>Research communication techniques</t>
+  </si>
+  <si>
+    <t>Read through and understand the assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Study what is due for the remainder of the week</t>
+  </si>
+  <si>
+    <t>Complete week 4 Burn-Up List</t>
   </si>
 </sst>
 </file>
@@ -354,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -403,11 +483,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -435,27 +526,63 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +906,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -802,7 +929,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -823,7 +950,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -844,7 +971,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -867,7 +994,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -886,7 +1013,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -909,7 +1036,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -930,41 +1057,41 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>42382</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>42382</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="15"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -987,7 +1114,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1008,10 +1135,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1031,37 +1158,37 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>42384</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>42384</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1084,42 +1211,42 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>42385</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>42385</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1139,8 +1266,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1159,6 +1286,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G17:G18"/>
@@ -1175,15 +1309,358 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G3" s="7">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>42387</v>
+      </c>
+      <c r="G4" s="7">
+        <v>42388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42391</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <v>42389</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>42389</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7">
+        <v>42390</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>42392</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7">
+        <v>42393</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7">
+        <v>42393</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7">
+        <v>42395</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>